--- a/election_votar_data/LOHAGARA/CHUNATI/152611/152611_com_1658_female_without_photo_93_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHUNATI/152611/152611_com_1658_female_without_photo_93_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="45.5" customWidth="1" min="4" max="4"/>
     <col width="35.5" customWidth="1" min="5" max="5"/>
-    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -7286,7 +7286,7 @@
       </c>
       <c r="F163" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী/জন্ম তারিখ:০২/০৩/১৯৮৯</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G163" s="3" t="inlineStr">
@@ -10898,7 +10898,7 @@
       </c>
       <c r="F249" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী/জন্ম তারিখ:১৪/১০/১৯৮৯</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G249" s="3" t="inlineStr">
@@ -15896,7 +15896,7 @@
       </c>
       <c r="F368" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী/জন্ম তারিখ:০১/০১/১৯৯৮</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G368" s="3" t="inlineStr">
@@ -16274,7 +16274,7 @@
       </c>
       <c r="F377" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী/জন্ম তারিখ:০১/০২/১৯৯৯</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G377" s="3" t="inlineStr">
@@ -21104,7 +21104,7 @@
       </c>
       <c r="F492" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী/জন্ম তারিখ:০১/০১/১৯৮৫</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G492" s="3" t="inlineStr">
@@ -25262,7 +25262,7 @@
       </c>
       <c r="F591" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী/জন্ম তারিখ:১৫/০৬/১৯৮৬</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G591" s="3" t="inlineStr">
@@ -27950,7 +27950,7 @@
       </c>
       <c r="F655" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী/জন্ম তারিখ:০৭/০৫/১৯৯০</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G655" s="3" t="inlineStr">
@@ -32402,7 +32402,7 @@
       </c>
       <c r="F761" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১২/০৫/১৯৯৬</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G761" s="3" t="inlineStr">
@@ -34838,7 +34838,7 @@
       </c>
       <c r="F819" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১০/০১/১৯৯৭</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G819" s="3" t="inlineStr">
@@ -35683,7 +35683,7 @@
       </c>
       <c r="G839" s="3" t="inlineStr">
         <is>
-          <t>০৪/০৩/১৯৯৪</t>
+          <t>১৫/০৬/১৯৮৬</t>
         </is>
       </c>
       <c r="H839" s="5" t="inlineStr">
@@ -56720,7 +56720,7 @@
       </c>
       <c r="F1340" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী/জন্ম তারিখ:২২/১০/১৯৯২</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G1340" s="3" t="inlineStr">
@@ -56730,7 +56730,7 @@
       </c>
       <c r="H1340" s="5" t="inlineStr">
         <is>
-          <t>৫৮২ শাহেব উদ্দিনের বাপের বাড়ী, চুনতি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৫৮২ শাহেব উদ্দিনের বাপের বাড়ি, চুনতি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -57056,7 +57056,7 @@
       </c>
       <c r="F1348" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২০/০৩/১৯৯৮</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G1348" s="3" t="inlineStr">
@@ -61634,7 +61634,7 @@
       </c>
       <c r="F1457" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী/জন্ম তারিখ:০৮/০১/১৯৯৮</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G1457" s="3" t="inlineStr">
@@ -61760,7 +61760,7 @@
       </c>
       <c r="F1460" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক/জন্ম তারিখ:০৩/০১/১৯৯৬</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G1460" s="3" t="inlineStr">
@@ -65246,7 +65246,7 @@
       </c>
       <c r="F1543" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৩/০১/১৯৯৬</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G1543" s="3" t="inlineStr">
@@ -66254,7 +66254,7 @@
       </c>
       <c r="F1567" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২৮/০৮/১৯৯৮</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G1567" s="3" t="inlineStr">
@@ -66380,7 +66380,7 @@
       </c>
       <c r="F1570" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী/জন্ম তারিখ:০৫/০২/১৯৭৮</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G1570" s="3" t="inlineStr">
@@ -66422,7 +66422,7 @@
       </c>
       <c r="F1571" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী/জন্ম তারিখ:০১/০২/১৯৯২</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G1571" s="3" t="inlineStr">
@@ -69656,7 +69656,7 @@
       </c>
       <c r="F1648" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী/জন্ম তারিখ:১৩/০৮/১৯৯৮</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G1648" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/CHUNATI/152611/152611_com_1658_female_without_photo_93_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHUNATI/152611/152611_com_1658_female_without_photo_93_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="45.5" customWidth="1" min="4" max="4"/>
     <col width="35.5" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -7286,7 +7286,7 @@
       </c>
       <c r="F163" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>গৃহিনী/জন্ম তারিখ:০২/০৩/১৯৮৯</t>
         </is>
       </c>
       <c r="G163" s="3" t="inlineStr">
@@ -10898,7 +10898,7 @@
       </c>
       <c r="F249" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>গৃহিনী/জন্ম তারিখ:১৪/১০/১৯৮৯</t>
         </is>
       </c>
       <c r="G249" s="3" t="inlineStr">
@@ -15896,7 +15896,7 @@
       </c>
       <c r="F368" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>গৃহিনী/জন্ম তারিখ:০১/০১/১৯৯৮</t>
         </is>
       </c>
       <c r="G368" s="3" t="inlineStr">
@@ -16274,7 +16274,7 @@
       </c>
       <c r="F377" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>গৃহিনী/জন্ম তারিখ:০১/০২/১৯৯৯</t>
         </is>
       </c>
       <c r="G377" s="3" t="inlineStr">
@@ -21104,7 +21104,7 @@
       </c>
       <c r="F492" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>গৃহিনী/জন্ম তারিখ:০১/০১/১৯৮৫</t>
         </is>
       </c>
       <c r="G492" s="3" t="inlineStr">
@@ -25262,7 +25262,7 @@
       </c>
       <c r="F591" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>গৃহিনী/জন্ম তারিখ:১৫/০৬/১৯৮৬</t>
         </is>
       </c>
       <c r="G591" s="3" t="inlineStr">
@@ -27950,7 +27950,7 @@
       </c>
       <c r="F655" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>গৃহিনী/জন্ম তারিখ:০৭/০৫/১৯৯০</t>
         </is>
       </c>
       <c r="G655" s="3" t="inlineStr">
@@ -32402,7 +32402,7 @@
       </c>
       <c r="F761" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১২/০৫/১৯৯৬</t>
         </is>
       </c>
       <c r="G761" s="3" t="inlineStr">
@@ -34838,7 +34838,7 @@
       </c>
       <c r="F819" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১০/০১/১৯৯৭</t>
         </is>
       </c>
       <c r="G819" s="3" t="inlineStr">
@@ -35683,7 +35683,7 @@
       </c>
       <c r="G839" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৬/১৯৮৬</t>
+          <t>০৪/০৩/১৯৯৪</t>
         </is>
       </c>
       <c r="H839" s="5" t="inlineStr">
@@ -56720,7 +56720,7 @@
       </c>
       <c r="F1340" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>গৃহিনী/জন্ম তারিখ:২২/১০/১৯৯২</t>
         </is>
       </c>
       <c r="G1340" s="3" t="inlineStr">
@@ -56730,7 +56730,7 @@
       </c>
       <c r="H1340" s="5" t="inlineStr">
         <is>
-          <t>৫৮২ শাহেব উদ্দিনের বাপের বাড়ি, চুনতি, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৫৮২ শাহেব উদ্দিনের বাপের বাড়ী, চুনতি, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -57056,7 +57056,7 @@
       </c>
       <c r="F1348" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২০/০৩/১৯৯৮</t>
         </is>
       </c>
       <c r="G1348" s="3" t="inlineStr">
@@ -61634,7 +61634,7 @@
       </c>
       <c r="F1457" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>গৃহিনী/জন্ম তারিখ:০৮/০১/১৯৯৮</t>
         </is>
       </c>
       <c r="G1457" s="3" t="inlineStr">
@@ -61760,7 +61760,7 @@
       </c>
       <c r="F1460" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>শ্রমিক/জন্ম তারিখ:০৩/০১/১৯৯৬</t>
         </is>
       </c>
       <c r="G1460" s="3" t="inlineStr">
@@ -65246,7 +65246,7 @@
       </c>
       <c r="F1543" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৩/০১/১৯৯৬</t>
         </is>
       </c>
       <c r="G1543" s="3" t="inlineStr">
@@ -66254,7 +66254,7 @@
       </c>
       <c r="F1567" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২৮/০৮/১৯৯৮</t>
         </is>
       </c>
       <c r="G1567" s="3" t="inlineStr">
@@ -66380,7 +66380,7 @@
       </c>
       <c r="F1570" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>গৃহিনী/জন্ম তারিখ:০৫/০২/১৯৭৮</t>
         </is>
       </c>
       <c r="G1570" s="3" t="inlineStr">
@@ -66422,7 +66422,7 @@
       </c>
       <c r="F1571" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>গৃহিনী/জন্ম তারিখ:০১/০২/১৯৯২</t>
         </is>
       </c>
       <c r="G1571" s="3" t="inlineStr">
@@ -69656,7 +69656,7 @@
       </c>
       <c r="F1648" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>গৃহিনী/জন্ম তারিখ:১৩/০৮/১৯৯৮</t>
         </is>
       </c>
       <c r="G1648" s="3" t="inlineStr">
